--- a/data/trans_dic/P56$privada-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P56$privada-Edad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.02509267169191698</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.09881641173159483</v>
+        <v>0.09881641173159481</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1094176925534006</v>
@@ -715,31 +715,31 @@
       </c>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="n">
-        <v>0.01668145047467914</v>
+        <v>0.030864080127636</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04095529299932487</v>
+        <v>0.03995860170509206</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02344283622344857</v>
+        <v>0.02332285068822712</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0565625801877913</v>
+        <v>0.05244589701769229</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02743624311523317</v>
+        <v>0.02654768133699508</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02941333277428293</v>
+        <v>0.03039190255835245</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05425472543190937</v>
+        <v>0.05625071446756803</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2745481461840666</v>
+        <v>0.3387481731544302</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2674599067041783</v>
+        <v>0.2173892033312814</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.1798767292436869</v>
+        <v>0.1924848574772245</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3595341675769186</v>
+        <v>0.3143639836429849</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1930008765654508</v>
+        <v>0.2151057251254211</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1239218707383765</v>
+        <v>0.1267637575119597</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1777191331709311</v>
+        <v>0.1662448626841569</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2466043658397353</v>
+        <v>0.2310888006087636</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1672596758572964</v>
+        <v>0.1624820927641136</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08435867960388282</v>
+        <v>0.08275630475337807</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1474816427562815</v>
+        <v>0.1460992062992929</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>0.1955098503424953</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2038870375888509</v>
+        <v>0.203887037588851</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.09764321717985848</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0226835830363372</v>
+        <v>0.02261578855497891</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04763223478418227</v>
+        <v>0.05116200292742748</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1043784508763493</v>
+        <v>0.09936608028261337</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1181324090199903</v>
+        <v>0.1181447061953542</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04809649194890084</v>
+        <v>0.04774801704301228</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1061031196550442</v>
+        <v>0.09919091585614553</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1176139913009563</v>
+        <v>0.1232902426958519</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1666896942271419</v>
+        <v>0.165683518483805</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04835127340568556</v>
+        <v>0.04822411475434042</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1002312510849052</v>
+        <v>0.1008431594898397</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1316392310733678</v>
+        <v>0.1372921932162372</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1617402479917905</v>
+        <v>0.1592899346900395</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1977404668609274</v>
+        <v>0.1776624877408762</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2256079882545464</v>
+        <v>0.2249116986460747</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3153999734714609</v>
+        <v>0.308991165981818</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2563375085142684</v>
+        <v>0.2643104128229892</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2137097467664679</v>
+        <v>0.2143368816641506</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2311743886014045</v>
+        <v>0.2289475909024895</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2915748779273819</v>
+        <v>0.2907431123444244</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2501328730288277</v>
+        <v>0.2493938331911991</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.16755014800934</v>
+        <v>0.1658690671126114</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2023655896189976</v>
+        <v>0.2001047648384963</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2627365587985236</v>
+        <v>0.2737482743464251</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2351715165630446</v>
+        <v>0.2332405099388843</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.1351821428706154</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1482351596738313</v>
+        <v>0.1482351596738314</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1154378850327528</v>
@@ -965,7 +965,7 @@
         <v>0.1488993992933316</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1718817726983657</v>
+        <v>0.1718817726983658</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.018181376761014</v>
+        <v>0.01837348025444355</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04062427276805123</v>
+        <v>0.04053167540858277</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07456329261075115</v>
+        <v>0.07115669828266706</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09909327364845297</v>
+        <v>0.09736265146777222</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05938493835998161</v>
+        <v>0.0560636822959904</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09997042115331738</v>
+        <v>0.09590479593088026</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1004342210611629</v>
+        <v>0.09472128898464305</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1486734213580845</v>
+        <v>0.1484430797209509</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06070432082553867</v>
+        <v>0.05546334485986106</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.09502748119299462</v>
+        <v>0.09236285276493465</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1042401513849327</v>
+        <v>0.1050385281024619</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1418387389605381</v>
+        <v>0.1450516379981255</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1575053765667068</v>
+        <v>0.1655899125735037</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1791820635544638</v>
+        <v>0.1853536905330833</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2255368521676862</v>
+        <v>0.2262643532246799</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2108698350659924</v>
+        <v>0.2123886264706817</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2015131229078345</v>
+        <v>0.2034329393930317</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.203319624188977</v>
+        <v>0.203003547946867</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2242724049813964</v>
+        <v>0.2342792439694209</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2202779260496186</v>
+        <v>0.2168962575360646</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1596703249052437</v>
+        <v>0.1621921427739912</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1775890391609752</v>
+        <v>0.1741008541592499</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2026692568420442</v>
+        <v>0.2086710574097864</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2056875482515922</v>
+        <v>0.2054913006755562</v>
       </c>
     </row>
     <row r="13">
@@ -1329,31 +1329,31 @@
       </c>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="n">
-        <v>517</v>
+        <v>956</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>904</v>
+        <v>882</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3363</v>
+        <v>3119</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>958</v>
+        <v>927</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1870</v>
+        <v>1932</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>4907</v>
+        <v>5088</v>
       </c>
     </row>
     <row r="7">
@@ -1364,38 +1364,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>3532</v>
+        <v>4358</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5731</v>
+        <v>4658</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>5573</v>
+        <v>5964</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7935</v>
+        <v>6938</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>8132</v>
+        <v>9063</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>5103</v>
+        <v>5220</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>10568</v>
+        <v>9885</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>8615</v>
+        <v>8073</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>10632</v>
+        <v>10328</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>5254</v>
+        <v>5154</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>13339</v>
+        <v>13214</v>
       </c>
     </row>
     <row r="8">
@@ -1498,40 +1498,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2719</v>
+        <v>2920</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5323</v>
+        <v>5068</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>9166</v>
+        <v>9167</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3438</v>
+        <v>3413</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>17306</v>
+        <v>16179</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>15361</v>
+        <v>16102</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>35999</v>
+        <v>35782</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>5168</v>
+        <v>5155</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>22070</v>
+        <v>22204</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>23906</v>
+        <v>24933</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>47481</v>
+        <v>46761</v>
       </c>
     </row>
     <row r="11">
@@ -1542,40 +1542,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>7003</v>
+        <v>6292</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>12877</v>
+        <v>12837</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>16085</v>
+        <v>15758</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>19890</v>
+        <v>20509</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>15275</v>
+        <v>15320</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>37707</v>
+        <v>37344</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>38081</v>
+        <v>37973</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>54020</v>
+        <v>53861</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>17910</v>
+        <v>17730</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>44558</v>
+        <v>44060</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>47714</v>
+        <v>49714</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>69037</v>
+        <v>68470</v>
       </c>
     </row>
     <row r="12">
@@ -1678,40 +1678,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>878</v>
+        <v>887</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3189</v>
+        <v>3182</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5376</v>
+        <v>5130</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>10759</v>
+        <v>10571</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5555</v>
+        <v>5244</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>20518</v>
+        <v>19684</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>17253</v>
+        <v>16272</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>40949</v>
+        <v>40886</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>8609</v>
+        <v>7866</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>26964</v>
+        <v>26208</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>25423</v>
+        <v>25617</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>54467</v>
+        <v>55701</v>
       </c>
     </row>
     <row r="15">
@@ -1722,40 +1722,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7605</v>
+        <v>7995</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14067</v>
+        <v>14551</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>16261</v>
+        <v>16313</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>22895</v>
+        <v>23060</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>18851</v>
+        <v>19030</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>41730</v>
+        <v>41665</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>38527</v>
+        <v>40246</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>60671</v>
+        <v>59740</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>22645</v>
+        <v>23003</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>50391</v>
+        <v>49401</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>49428</v>
+        <v>50892</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>78985</v>
+        <v>78910</v>
       </c>
     </row>
     <row r="16">
